--- a/kisa-gcs-system/data/KISA MongoDB Specification.xlsx
+++ b/kisa-gcs-system/data/KISA MongoDB Specification.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="576">
   <si>
     <t xml:space="preserve">MongoDB Specification </t>
   </si>
@@ -1374,6 +1374,9 @@
     <t>HEARTBEAT</t>
   </si>
   <si>
+    <t>mavlink_heartbeat_t</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -1395,6 +1398,9 @@
     <t>ATTITUDE</t>
   </si>
   <si>
+    <t>mavlink_attitude_t</t>
+  </si>
+  <si>
     <t>time_boot_ms</t>
   </si>
   <si>
@@ -1410,6 +1416,9 @@
     <t>GLOBAL_POSITION_INT</t>
   </si>
   <si>
+    <t>mavlink_global_position_int_t</t>
+  </si>
+  <si>
     <t>lat</t>
   </si>
   <si>
@@ -1437,6 +1446,9 @@
     <t>SYS_STATUS</t>
   </si>
   <si>
+    <t>mavlink_sys_status_t</t>
+  </si>
+  <si>
     <t>onboard_control_sensors_present</t>
   </si>
   <si>
@@ -1479,6 +1491,9 @@
     <t>POWER_STATUS</t>
   </si>
   <si>
+    <t>mavlink_power_status_t</t>
+  </si>
+  <si>
     <t>Vcc</t>
   </si>
   <si>
@@ -1491,6 +1506,9 @@
     <t>MEMINFO</t>
   </si>
   <si>
+    <t>mavlink_meminfo_t</t>
+  </si>
+  <si>
     <t>brkval</t>
   </si>
   <si>
@@ -1503,6 +1521,9 @@
     <t>NAV_CONTROLLER_OUTPUT</t>
   </si>
   <si>
+    <t>mavlink_nav_controller_output_t</t>
+  </si>
+  <si>
     <t>nav_roll</t>
   </si>
   <si>
@@ -1530,9 +1551,15 @@
     <t>MISSION_CURRUENT</t>
   </si>
   <si>
+    <t>mavlink_mission_current_t</t>
+  </si>
+  <si>
     <t>VFR_HUD</t>
   </si>
   <si>
+    <t>mavlink_vfr_hud_t</t>
+  </si>
+  <si>
     <t>airspeed</t>
   </si>
   <si>
@@ -1551,6 +1578,9 @@
     <t>SERVO_OUTPUT_RAW</t>
   </si>
   <si>
+    <t>mavlink_servo_output_raw_t</t>
+  </si>
+  <si>
     <t>time_usec</t>
   </si>
   <si>
@@ -1560,9 +1590,15 @@
     <t>RC_CHANNERLS</t>
   </si>
   <si>
+    <t>rc_channels_t</t>
+  </si>
+  <si>
     <t>RAW_IMU</t>
   </si>
   <si>
+    <t>mavlink_raw_imu_t</t>
+  </si>
+  <si>
     <t>xacc</t>
   </si>
   <si>
@@ -1599,12 +1635,21 @@
     <t>SCALED_IMU2</t>
   </si>
   <si>
+    <t>mavlink_scaled_imu2_t</t>
+  </si>
+  <si>
     <t>SCALED_IMU3</t>
   </si>
   <si>
+    <t>mavlink_scaled_imu3_t</t>
+  </si>
+  <si>
     <t>SCALED_PRESSURE</t>
   </si>
   <si>
+    <t>mavlink_scaled_pressure_t</t>
+  </si>
+  <si>
     <t>press_abs</t>
   </si>
   <si>
@@ -1617,9 +1662,15 @@
     <t>SCALED_PRESSURE2</t>
   </si>
   <si>
+    <t>mavlink_scaled_pressure2_t</t>
+  </si>
+  <si>
     <t>GPS_RAW_INT</t>
   </si>
   <si>
+    <t>mavlink_gps_raw_int_t</t>
+  </si>
+  <si>
     <t>fix_type</t>
   </si>
   <si>
@@ -1656,12 +1707,18 @@
     <t>SYSTEM_TIME</t>
   </si>
   <si>
+    <t>mavlink_system_time_t</t>
+  </si>
+  <si>
     <t>time_unix_usec</t>
   </si>
   <si>
     <t>AHRS</t>
   </si>
   <si>
+    <t>mavlink_ahrs_t</t>
+  </si>
+  <si>
     <t>omegaIx</t>
   </si>
   <si>
@@ -1686,18 +1743,27 @@
     <t>SIMSTATE</t>
   </si>
   <si>
+    <t>mavlink_simstate_t</t>
+  </si>
+  <si>
     <t>lng</t>
   </si>
   <si>
     <t>AHRS2</t>
   </si>
   <si>
+    <t>mavlink_ahrs2_t</t>
+  </si>
+  <si>
     <t>altitude</t>
   </si>
   <si>
     <t>WIND</t>
   </si>
   <si>
+    <t>mavlink_wind_t</t>
+  </si>
+  <si>
     <t>direction</t>
   </si>
   <si>
@@ -1710,6 +1776,9 @@
     <t>TERRAIN_REPORT</t>
   </si>
   <si>
+    <t>mavlink_terrain_report_t</t>
+  </si>
+  <si>
     <t>spacing</t>
   </si>
   <si>
@@ -1728,6 +1797,9 @@
     <t>EKF_STATUS_REPORT</t>
   </si>
   <si>
+    <t>mavlink_ekf_status_report_t</t>
+  </si>
+  <si>
     <t>velocity_variance</t>
   </si>
   <si>
@@ -1749,6 +1821,9 @@
     <t>LOCAL_POSITION_NED</t>
   </si>
   <si>
+    <t>mavlink_local_position_ned_t</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
@@ -1761,6 +1836,9 @@
     <t>VIBRATION</t>
   </si>
   <si>
+    <t>mavlink_vibration_t</t>
+  </si>
+  <si>
     <t>vibration_x</t>
   </si>
   <si>
@@ -1782,6 +1860,9 @@
     <t>BATTERY_STATUS</t>
   </si>
   <si>
+    <t>mavlink_battery_status_t</t>
+  </si>
+  <si>
     <t>battery_function</t>
   </si>
   <si>
@@ -1812,6 +1893,9 @@
     <t>ESC_TELEMETRY_1_TO_4</t>
   </si>
   <si>
+    <t>mavlink_esc_telemetry_1_to_4_t</t>
+  </si>
+  <si>
     <t>temperature (array)</t>
   </si>
   <si>
@@ -1831,6 +1915,9 @@
   </si>
   <si>
     <t>ESC_TELEMETRY_5_TO_8</t>
+  </si>
+  <si>
+    <t>mavlink_esc_telemetry_5_to_8_t</t>
   </si>
 </sst>
 </file>
@@ -8847,16 +8934,16 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="24.38"/>
-    <col customWidth="1" min="2" max="2" width="26.25"/>
-    <col customWidth="1" min="3" max="3" width="26.63"/>
-    <col customWidth="1" min="4" max="4" width="25.25"/>
-    <col customWidth="1" min="5" max="5" width="14.63"/>
-    <col customWidth="1" min="6" max="6" width="18.13"/>
-    <col customWidth="1" min="7" max="7" width="15.63"/>
-    <col customWidth="1" min="8" max="9" width="14.75"/>
-    <col customWidth="1" min="10" max="10" width="13.75"/>
-    <col customWidth="1" min="11" max="11" width="13.0"/>
-    <col customWidth="1" min="13" max="13" width="15.75"/>
+    <col customWidth="1" min="2" max="3" width="26.25"/>
+    <col customWidth="1" min="4" max="4" width="26.63"/>
+    <col customWidth="1" min="5" max="5" width="25.25"/>
+    <col customWidth="1" min="6" max="6" width="14.63"/>
+    <col customWidth="1" min="7" max="7" width="18.13"/>
+    <col customWidth="1" min="8" max="8" width="15.63"/>
+    <col customWidth="1" min="9" max="10" width="14.75"/>
+    <col customWidth="1" min="11" max="11" width="13.75"/>
+    <col customWidth="1" min="12" max="12" width="13.0"/>
+    <col customWidth="1" min="14" max="14" width="15.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8886,730 +8973,817 @@
       <c r="G2" s="37" t="s">
         <v>399</v>
       </c>
+      <c r="H2" s="37" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C3" s="37" t="s">
+        <v>403</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="F3" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="F3" s="37" t="s">
-        <v>402</v>
-      </c>
       <c r="G3" s="37" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>404</v>
+        <v>405</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="37" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>413</v>
+        <v>415</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="37" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K5" s="37" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M5" s="37" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="N5" s="37" t="s">
-        <v>427</v>
+        <v>430</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="37" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>431</v>
+        <v>435</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="37" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>435</v>
+        <v>440</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="37" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>444</v>
+        <v>450</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="37" t="s">
-        <v>445</v>
+        <v>452</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="37" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>451</v>
+        <v>411</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="37" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="C11" s="37" t="s">
+        <v>463</v>
+      </c>
+      <c r="D11" s="37" t="s">
         <v>358</v>
       </c>
-      <c r="D11" s="37" t="s">
-        <v>454</v>
+      <c r="E11" s="37" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="37" t="s">
-        <v>455</v>
+        <v>465</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="37" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="K13" s="37" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="L13" s="37" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="M13" s="37" t="s">
-        <v>467</v>
+        <v>478</v>
+      </c>
+      <c r="N13" s="37" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="37" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>401</v>
+        <v>481</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>457</v>
+        <v>403</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="K14" s="37" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="L14" s="37" t="s">
-        <v>467</v>
+        <v>477</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>403</v>
+      </c>
+      <c r="D15" s="37" t="s">
         <v>469</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>401</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>457</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>458</v>
-      </c>
       <c r="E15" s="37" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="K15" s="37" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="L15" s="37" t="s">
-        <v>467</v>
+        <v>477</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="37" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>401</v>
+        <v>485</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>471</v>
+        <v>403</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>473</v>
+        <v>479</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="37" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>471</v>
+        <v>403</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>473</v>
+        <v>479</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="37" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>406</v>
+        <v>493</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>477</v>
+        <v>411</v>
       </c>
       <c r="H18" s="37" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="L18" s="37" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="M18" s="37" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="N18" s="37" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="O18" s="37" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="P18" s="37" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="Q18" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="R18" s="37" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="37" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>401</v>
+        <v>506</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="37" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>496</v>
+        <v>514</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="37" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="B21" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="C21" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="D21" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="E21" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="E21" s="37" t="s">
-        <v>457</v>
-      </c>
       <c r="F21" s="37" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="H21" s="37" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="K21" s="37" t="s">
-        <v>406</v>
+        <v>474</v>
       </c>
       <c r="L21" s="37" t="s">
-        <v>498</v>
+        <v>409</v>
+      </c>
+      <c r="M21" s="37" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="37" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="B22" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="C22" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="D22" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="E22" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="E22" s="37" t="s">
-        <v>500</v>
-      </c>
       <c r="F22" s="37" t="s">
-        <v>406</v>
+        <v>521</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>498</v>
+        <v>409</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="37" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>504</v>
+        <v>525</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="37" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>406</v>
+        <v>528</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>506</v>
+        <v>410</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>510</v>
+        <v>532</v>
+      </c>
+      <c r="I24" s="37" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="37" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>431</v>
+        <v>535</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>512</v>
+        <v>436</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>517</v>
+        <v>540</v>
+      </c>
+      <c r="I25" s="37" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="37" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>401</v>
+        <v>543</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>519</v>
+        <v>403</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>410</v>
+        <v>546</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>412</v>
+        <v>414</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="37" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>453</v>
+        <v>548</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>523</v>
+        <v>463</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>526</v>
+        <v>551</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>528</v>
+        <v>553</v>
+      </c>
+      <c r="I27" s="37" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="37" t="s">
-        <v>529</v>
+        <v>555</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>466</v>
+        <v>556</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>530</v>
+        <v>478</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>394</v>
+        <v>557</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>467</v>
+        <v>395</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>531</v>
+        <v>479</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>420</v>
+        <v>558</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>532</v>
+        <v>424</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>533</v>
+        <v>559</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>421</v>
+        <v>560</v>
       </c>
       <c r="K28" s="37" t="s">
-        <v>534</v>
+        <v>425</v>
       </c>
       <c r="L28" s="37" t="s">
-        <v>535</v>
+        <v>561</v>
       </c>
       <c r="M28" s="37" t="s">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="N28" s="37" t="s">
-        <v>537</v>
+        <v>563</v>
       </c>
       <c r="O28" s="37" t="s">
-        <v>538</v>
+        <v>564</v>
+      </c>
+      <c r="P28" s="37" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="37" t="s">
-        <v>539</v>
+        <v>566</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>541</v>
+        <v>568</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>543</v>
+        <v>570</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>545</v>
+        <v>572</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="37" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>541</v>
+        <v>568</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>543</v>
+        <v>570</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>545</v>
+        <v>572</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>
